--- a/biology/Zoologie/Cyanagraea_praedator/Cyanagraea_praedator.xlsx
+++ b/biology/Zoologie/Cyanagraea_praedator/Cyanagraea_praedator.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cyanagraea praedator est une espèce de crabes vivant près des monts hydrothermaux. C'est la seule espèce du genre Cyanagraea[2],[3].
-On la retrouve à des profondeurs variant de 2 535 à 2 630 mètres sur la dorsale du Pacifique Est[4], sur les « parties supérieures des fumeurs noirs[trad 1]. »[5]. Son hémocyanine possède de fortes affinités chimiques pour l'oxygène et produit un effet Bohr significatif, qui n'est pas affecté par l'acide lactique[6].
-Cyanagraea praedator est, de loin, le plus grand représentant de la famille Bythograeidae, atteignant une taille maximale de carapace d'environ 123,0 par 74,8 millimètres[4].
-On a observé sur C. praedator des spécimens de sangsues Bathybdella sawyeri[7].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cyanagraea praedator est une espèce de crabes vivant près des monts hydrothermaux. C'est la seule espèce du genre Cyanagraea,.
+On la retrouve à des profondeurs variant de 2 535 à 2 630 mètres sur la dorsale du Pacifique Est, sur les « parties supérieures des fumeurs noirs[trad 1]. ». Son hémocyanine possède de fortes affinités chimiques pour l'oxygène et produit un effet Bohr significatif, qui n'est pas affecté par l'acide lactique.
+Cyanagraea praedator est, de loin, le plus grand représentant de la famille Bythograeidae, atteignant une taille maximale de carapace d'environ 123,0 par 74,8 millimètres.
+On a observé sur C. praedator des spécimens de sangsues Bathybdella sawyeri.
 </t>
         </is>
       </c>
